--- a/download/bulkUserCredentialForImageViewerExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>hQbLc655</t>
-  </si>
-  <si>
-    <t>kkxbdqq58</t>
-  </si>
-  <si>
-    <t>Hp%93Ny#</t>
+    <t>qyPJB451</t>
+  </si>
+  <si>
+    <t>mykqzwk73</t>
+  </si>
+  <si>
+    <t>D79rT#!m</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>lBKZgNJu</t>
-  </si>
-  <si>
-    <t>UTWa</t>
+    <t>EeExZcXb</t>
+  </si>
+  <si>
+    <t>lxwg</t>
   </si>
   <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>qZFcP215</t>
+  </si>
+  <si>
+    <t>xktsvbg93</t>
+  </si>
+  <si>
+    <t>k24p!SJ%</t>
+  </si>
+  <si>
+    <t>lgbcEkry</t>
+  </si>
+  <si>
+    <t>tiBC</t>
   </si>
 </sst>
 </file>
@@ -427,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004193</v>
+        <v>231006244</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,6 +499,32 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>231006243</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForImageViewerExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,40 +41,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>qyPJB451</t>
-  </si>
-  <si>
-    <t>mykqzwk73</t>
-  </si>
-  <si>
-    <t>D79rT#!m</t>
+    <t>hQbLc655</t>
+  </si>
+  <si>
+    <t>kkxbdqq58</t>
+  </si>
+  <si>
+    <t>Hp%93Ny#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>EeExZcXb</t>
-  </si>
-  <si>
-    <t>lxwg</t>
+    <t>lBKZgNJu</t>
+  </si>
+  <si>
+    <t>UTWa</t>
   </si>
   <si>
     <t>Candidate</t>
-  </si>
-  <si>
-    <t>qZFcP215</t>
-  </si>
-  <si>
-    <t>xktsvbg93</t>
-  </si>
-  <si>
-    <t>k24p!SJ%</t>
-  </si>
-  <si>
-    <t>lgbcEkry</t>
-  </si>
-  <si>
-    <t>tiBC</t>
   </si>
 </sst>
 </file>
@@ -442,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006244</v>
+        <v>231004193</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -499,32 +484,6 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>231006243</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForImageViewerExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>hQbLc655</t>
-  </si>
-  <si>
-    <t>kkxbdqq58</t>
-  </si>
-  <si>
-    <t>Hp%93Ny#</t>
+    <t>hcszK894</t>
+  </si>
+  <si>
+    <t>lovvxxj63</t>
+  </si>
+  <si>
+    <t>m$2W#cU9</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>lBKZgNJu</t>
-  </si>
-  <si>
-    <t>UTWa</t>
+    <t>uQwOJFdm</t>
+  </si>
+  <si>
+    <t>NxLV</t>
   </si>
   <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>zjEbF698</t>
+  </si>
+  <si>
+    <t>fnnjlff28</t>
+  </si>
+  <si>
+    <t>xJ65!W#y</t>
+  </si>
+  <si>
+    <t>jnkrqvHy</t>
+  </si>
+  <si>
+    <t>GkoO</t>
   </si>
 </sst>
 </file>
@@ -427,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004193</v>
+        <v>231011229</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,6 +499,32 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>231011228</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForImageViewerExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>hcszK894</t>
-  </si>
-  <si>
-    <t>lovvxxj63</t>
-  </si>
-  <si>
-    <t>m$2W#cU9</t>
+    <t>cUDuz984</t>
+  </si>
+  <si>
+    <t>vjauicx43</t>
+  </si>
+  <si>
+    <t>jCh#5%8T</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>uQwOJFdm</t>
-  </si>
-  <si>
-    <t>NxLV</t>
+    <t>QzrdpkPC</t>
+  </si>
+  <si>
+    <t>JAdc</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>zjEbF698</t>
-  </si>
-  <si>
-    <t>fnnjlff28</t>
-  </si>
-  <si>
-    <t>xJ65!W#y</t>
-  </si>
-  <si>
-    <t>jnkrqvHy</t>
-  </si>
-  <si>
-    <t>GkoO</t>
+    <t>oaFQH721</t>
+  </si>
+  <si>
+    <t>uhdtmtz68</t>
+  </si>
+  <si>
+    <t>F#8Cn5b$</t>
+  </si>
+  <si>
+    <t>ayCLhEVp</t>
+  </si>
+  <si>
+    <t>zKgE</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231011229</v>
+        <v>23102882</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231011228</v>
+        <v>23102881</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForImageViewerExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>cUDuz984</t>
-  </si>
-  <si>
-    <t>vjauicx43</t>
-  </si>
-  <si>
-    <t>jCh#5%8T</t>
+    <t>uzDwP395</t>
+  </si>
+  <si>
+    <t>zbvswag56</t>
+  </si>
+  <si>
+    <t>Pc&amp;9sA8#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>QzrdpkPC</t>
-  </si>
-  <si>
-    <t>JAdc</t>
+    <t>TzGfrOCy</t>
+  </si>
+  <si>
+    <t>XEqY</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>oaFQH721</t>
-  </si>
-  <si>
-    <t>uhdtmtz68</t>
-  </si>
-  <si>
-    <t>F#8Cn5b$</t>
-  </si>
-  <si>
-    <t>ayCLhEVp</t>
-  </si>
-  <si>
-    <t>zKgE</t>
+    <t>owgaq229</t>
+  </si>
+  <si>
+    <t>dsjghdk70</t>
+  </si>
+  <si>
+    <t>E8yBm3&amp;#</t>
+  </si>
+  <si>
+    <t>puAlNsVg</t>
+  </si>
+  <si>
+    <t>hXaA</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23102882</v>
+        <v>231102274</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23102881</v>
+        <v>231102273</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForImageViewerExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>uzDwP395</t>
-  </si>
-  <si>
-    <t>zbvswag56</t>
-  </si>
-  <si>
-    <t>Pc&amp;9sA8#</t>
+    <t>HqFKg679</t>
+  </si>
+  <si>
+    <t>sfjauje16</t>
+  </si>
+  <si>
+    <t>fr87#BV$</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>TzGfrOCy</t>
-  </si>
-  <si>
-    <t>XEqY</t>
+    <t>rnTynNPp</t>
+  </si>
+  <si>
+    <t>reWS</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>owgaq229</t>
-  </si>
-  <si>
-    <t>dsjghdk70</t>
-  </si>
-  <si>
-    <t>E8yBm3&amp;#</t>
-  </si>
-  <si>
-    <t>puAlNsVg</t>
-  </si>
-  <si>
-    <t>hXaA</t>
+    <t>dlkfu240</t>
+  </si>
+  <si>
+    <t>kjqfxwa63</t>
+  </si>
+  <si>
+    <t>QJ5f2&amp;%u</t>
+  </si>
+  <si>
+    <t>pgxTBvqY</t>
+  </si>
+  <si>
+    <t>xNPm</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231102274</v>
+        <v>23110947</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231102273</v>
+        <v>23110946</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForImageViewerExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>HqFKg679</t>
-  </si>
-  <si>
-    <t>sfjauje16</t>
-  </si>
-  <si>
-    <t>fr87#BV$</t>
+    <t>DDSWJ822</t>
+  </si>
+  <si>
+    <t>mmoynkn13</t>
+  </si>
+  <si>
+    <t>jXT6&amp;a9%</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>rnTynNPp</t>
-  </si>
-  <si>
-    <t>reWS</t>
+    <t>oCMXMijT</t>
+  </si>
+  <si>
+    <t>NUSi</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>dlkfu240</t>
-  </si>
-  <si>
-    <t>kjqfxwa63</t>
-  </si>
-  <si>
-    <t>QJ5f2&amp;%u</t>
-  </si>
-  <si>
-    <t>pgxTBvqY</t>
-  </si>
-  <si>
-    <t>xNPm</t>
+    <t>EBfam296</t>
+  </si>
+  <si>
+    <t>ssorkdv49</t>
+  </si>
+  <si>
+    <t>A%Mv8t4&amp;</t>
+  </si>
+  <si>
+    <t>zDEPqVpC</t>
+  </si>
+  <si>
+    <t>wKNG</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110947</v>
+        <v>23111035</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23110946</v>
+        <v>23111034</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
